--- a/data/output/order_quantity.xlsx
+++ b/data/output/order_quantity.xlsx
@@ -396,10 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>6656.870001720786</v>
+        <v>6846.877835281603</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>17710.39368770083</v>
+        <v>18011.79696790654</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>12305.78372459475</v>
+        <v>26404.72476207088</v>
       </c>
     </row>
   </sheetData>
